--- a/VersionRecords/Version 5.0.3/BS权限/新增--修改--删除--权限配置表.xlsx
+++ b/VersionRecords/Version 5.0.3/BS权限/新增--修改--删除--权限配置表.xlsx
@@ -216,7 +216,7 @@
     <t>运营管理-活跃分-活跃分列表</t>
   </si>
   <si>
-    <t>landlord/findActiveScoreList</t>
+    <t>activeScore/findActiveScoreList</t>
   </si>
   <si>
     <t>活跃分列表</t>
@@ -281,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -317,16 +317,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,60 +371,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,25 +406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,10 +431,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -470,7 +470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +524,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,79 +608,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,79 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +743,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -759,20 +807,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,49 +829,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,36 +1108,36 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:colOff>1742440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="4229100"/>
-          <a:ext cx="4552950" cy="5629910"/>
+          <a:off x="2743200" y="4048125"/>
+          <a:ext cx="4609465" cy="3856990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,67 +1148,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="4895850"/>
-          <a:ext cx="3381375" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1571,7 +1510,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2171,7 +2110,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2527,7 +2466,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3077,7 +3016,6 @@
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
